--- a/REGULAR/ACCOUNTING/MAWAK, MIA PAULEEN BALBA.xlsx
+++ b/REGULAR/ACCOUNTING/MAWAK, MIA PAULEEN BALBA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="132">
   <si>
     <t>PERIOD</t>
   </si>
@@ -424,9 +424,6 @@
   </si>
   <si>
     <t>UT(0-0-56)</t>
-  </si>
-  <si>
-    <t>A(1-0-0)</t>
   </si>
   <si>
     <t>UT(0-4-35)</t>
@@ -1301,7 +1298,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,7 +1341,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1408,7 +1405,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1468,7 +1465,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1534,7 +1531,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1597,7 +1594,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1695,7 +1692,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1754,7 +1751,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1819,7 +1816,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1862,7 +1859,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1937,7 +1934,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2123,7 +2120,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,7 +2186,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2247,7 +2244,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2313,7 +2310,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2369,7 +2366,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2444,7 +2441,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2487,7 +2484,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2553,7 +2550,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2609,7 +2606,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2707,7 +2704,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2770,7 +2767,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3217,9 +3214,9 @@
   <dimension ref="A2:K342"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A175" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A193" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="F184" sqref="F184"/>
+      <selection pane="bottomLeft" activeCell="K207" sqref="K207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3384,7 +3381,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>86.467000000000013</v>
+        <v>91.217000000000013</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3394,7 +3391,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>80.375</v>
+        <v>82.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -7298,7 +7295,7 @@
         <v>44652</v>
       </c>
       <c r="B178" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C178" s="13">
         <v>1.25</v>
@@ -7396,19 +7393,19 @@
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="39">
-        <v>1</v>
-      </c>
+      <c r="D182" s="39"/>
       <c r="E182" s="9"/>
       <c r="F182" s="20"/>
       <c r="G182" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H182" s="39"/>
+      <c r="H182" s="39">
+        <v>1</v>
+      </c>
       <c r="I182" s="9"/>
       <c r="J182" s="11"/>
       <c r="K182" s="48">
@@ -7418,7 +7415,7 @@
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C183" s="13"/>
       <c r="D183" s="39">
@@ -7931,13 +7928,15 @@
       <c r="B205" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C205" s="13"/>
+      <c r="C205" s="41">
+        <v>1.25</v>
+      </c>
       <c r="D205" s="39"/>
       <c r="E205" s="9"/>
       <c r="F205" s="20"/>
-      <c r="G205" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G205" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H205" s="39">
         <v>1</v>
@@ -7952,37 +7951,51 @@
       <c r="A206" s="40">
         <v>45139</v>
       </c>
-      <c r="B206" s="20"/>
-      <c r="C206" s="13"/>
+      <c r="B206" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C206" s="41">
+        <v>1.25</v>
+      </c>
       <c r="D206" s="39"/>
       <c r="E206" s="9"/>
       <c r="F206" s="20"/>
-      <c r="G206" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G206" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H206" s="39"/>
       <c r="I206" s="9"/>
       <c r="J206" s="11"/>
-      <c r="K206" s="20"/>
+      <c r="K206" s="48">
+        <v>45167</v>
+      </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>45170</v>
       </c>
-      <c r="B207" s="20"/>
-      <c r="C207" s="13"/>
+      <c r="B207" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C207" s="41">
+        <v>1.25</v>
+      </c>
       <c r="D207" s="39"/>
       <c r="E207" s="9"/>
       <c r="F207" s="20"/>
-      <c r="G207" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H207" s="39"/>
+      <c r="G207" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H207" s="39">
+        <v>1</v>
+      </c>
       <c r="I207" s="9"/>
       <c r="J207" s="11"/>
-      <c r="K207" s="20"/>
+      <c r="K207" s="48">
+        <v>45196</v>
+      </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">

--- a/REGULAR/ACCOUNTING/MAWAK, MIA PAULEEN BALBA.xlsx
+++ b/REGULAR/ACCOUNTING/MAWAK, MIA PAULEEN BALBA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="136">
   <si>
     <t>PERIOD</t>
   </si>
@@ -436,6 +436,12 @@
   </si>
   <si>
     <t>12/27-29/2023</t>
+  </si>
+  <si>
+    <t>01/02-12/2024</t>
+  </si>
+  <si>
+    <t>VL(9-0-0)</t>
   </si>
 </sst>
 </file>
@@ -2839,7 +2845,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K344" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K345" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3217,12 +3223,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K344"/>
+  <dimension ref="A2:K345"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A193" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K211" sqref="K211"/>
+      <selection pane="bottomLeft" activeCell="C214" sqref="C214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3387,7 +3393,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>89.717000000000013</v>
+        <v>81.967000000000013</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3397,7 +3403,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>83.625</v>
+        <v>84.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -8082,15 +8088,17 @@
       <c r="B211" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C211" s="13"/>
+      <c r="C211" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D211" s="39">
         <v>3</v>
       </c>
       <c r="E211" s="9"/>
       <c r="F211" s="20"/>
-      <c r="G211" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G211" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H211" s="39"/>
       <c r="I211" s="9"/>
@@ -8100,12 +8108,14 @@
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="B212" s="20"/>
+      <c r="A212" s="40"/>
+      <c r="B212" s="20" t="s">
+        <v>135</v>
+      </c>
       <c r="C212" s="13"/>
-      <c r="D212" s="39"/>
+      <c r="D212" s="39">
+        <v>9</v>
+      </c>
       <c r="E212" s="9"/>
       <c r="F212" s="20"/>
       <c r="G212" s="13" t="str">
@@ -8115,11 +8125,13 @@
       <c r="H212" s="39"/>
       <c r="I212" s="9"/>
       <c r="J212" s="11"/>
-      <c r="K212" s="20"/>
+      <c r="K212" s="20" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" s="40">
-        <v>45292</v>
+      <c r="A213" s="47" t="s">
+        <v>132</v>
       </c>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -8137,7 +8149,7 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -8155,7 +8167,7 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -8173,7 +8185,7 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -8191,7 +8203,7 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -8209,7 +8221,7 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -8227,7 +8239,7 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -8245,7 +8257,7 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -8263,7 +8275,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -8281,7 +8293,7 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -8299,7 +8311,7 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -8317,7 +8329,7 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -8335,7 +8347,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -8353,7 +8365,7 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -8371,7 +8383,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -8389,7 +8401,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -8407,7 +8419,7 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -8425,7 +8437,7 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -8443,7 +8455,7 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -8461,7 +8473,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B232" s="20"/>
       <c r="C232" s="13"/>
@@ -8479,7 +8491,7 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B233" s="20"/>
       <c r="C233" s="13"/>
@@ -8497,7 +8509,7 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -8515,7 +8527,7 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B235" s="20"/>
       <c r="C235" s="13"/>
@@ -8533,7 +8545,7 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B236" s="20"/>
       <c r="C236" s="13"/>
@@ -8551,7 +8563,7 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B237" s="20"/>
       <c r="C237" s="13"/>
@@ -8569,7 +8581,7 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B238" s="20"/>
       <c r="C238" s="13"/>
@@ -8587,7 +8599,7 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B239" s="20"/>
       <c r="C239" s="13"/>
@@ -8605,7 +8617,7 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B240" s="20"/>
       <c r="C240" s="13"/>
@@ -8623,7 +8635,7 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B241" s="20"/>
       <c r="C241" s="13"/>
@@ -8641,7 +8653,7 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B242" s="20"/>
       <c r="C242" s="13"/>
@@ -8659,7 +8671,7 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B243" s="20"/>
       <c r="C243" s="13"/>
@@ -8677,7 +8689,7 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B244" s="20"/>
       <c r="C244" s="13"/>
@@ -8695,7 +8707,7 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B245" s="20"/>
       <c r="C245" s="13"/>
@@ -8713,7 +8725,7 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B246" s="20"/>
       <c r="C246" s="13"/>
@@ -8731,7 +8743,7 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B247" s="20"/>
       <c r="C247" s="13"/>
@@ -8749,7 +8761,7 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B248" s="20"/>
       <c r="C248" s="13"/>
@@ -8767,7 +8779,7 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B249" s="20"/>
       <c r="C249" s="13"/>
@@ -8785,7 +8797,7 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B250" s="20"/>
       <c r="C250" s="13"/>
@@ -8803,7 +8815,7 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B251" s="20"/>
       <c r="C251" s="13"/>
@@ -8821,7 +8833,7 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B252" s="20"/>
       <c r="C252" s="13"/>
@@ -8839,7 +8851,7 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B253" s="20"/>
       <c r="C253" s="13"/>
@@ -8857,7 +8869,7 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B254" s="20"/>
       <c r="C254" s="13"/>
@@ -8875,7 +8887,7 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B255" s="20"/>
       <c r="C255" s="13"/>
@@ -8893,7 +8905,7 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B256" s="20"/>
       <c r="C256" s="13"/>
@@ -8911,7 +8923,7 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B257" s="20"/>
       <c r="C257" s="13"/>
@@ -8929,7 +8941,7 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B258" s="20"/>
       <c r="C258" s="13"/>
@@ -8947,7 +8959,7 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B259" s="20"/>
       <c r="C259" s="13"/>
@@ -8965,7 +8977,7 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B260" s="20"/>
       <c r="C260" s="13"/>
@@ -8983,7 +8995,7 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B261" s="20"/>
       <c r="C261" s="13"/>
@@ -9001,7 +9013,7 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B262" s="20"/>
       <c r="C262" s="13"/>
@@ -9019,7 +9031,7 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B263" s="20"/>
       <c r="C263" s="13"/>
@@ -9037,7 +9049,7 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B264" s="20"/>
       <c r="C264" s="13"/>
@@ -9055,7 +9067,7 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B265" s="20"/>
       <c r="C265" s="13"/>
@@ -9073,7 +9085,7 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B266" s="20"/>
       <c r="C266" s="13"/>
@@ -9091,7 +9103,7 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B267" s="20"/>
       <c r="C267" s="13"/>
@@ -9109,7 +9121,7 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B268" s="20"/>
       <c r="C268" s="13"/>
@@ -9127,7 +9139,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B269" s="20"/>
       <c r="C269" s="13"/>
@@ -9145,7 +9157,7 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B270" s="20"/>
       <c r="C270" s="13"/>
@@ -9163,7 +9175,7 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B271" s="20"/>
       <c r="C271" s="13"/>
@@ -9181,7 +9193,7 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B272" s="20"/>
       <c r="C272" s="13"/>
@@ -9199,7 +9211,7 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B273" s="20"/>
       <c r="C273" s="13"/>
@@ -9217,7 +9229,7 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B274" s="20"/>
       <c r="C274" s="13"/>
@@ -9235,7 +9247,7 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B275" s="20"/>
       <c r="C275" s="13"/>
@@ -9253,7 +9265,7 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B276" s="20"/>
       <c r="C276" s="13"/>
@@ -9271,7 +9283,7 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B277" s="20"/>
       <c r="C277" s="13"/>
@@ -9289,7 +9301,7 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B278" s="20"/>
       <c r="C278" s="13"/>
@@ -9307,7 +9319,7 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B279" s="20"/>
       <c r="C279" s="13"/>
@@ -9325,7 +9337,7 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B280" s="20"/>
       <c r="C280" s="13"/>
@@ -9343,7 +9355,7 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B281" s="20"/>
       <c r="C281" s="13"/>
@@ -9361,7 +9373,7 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B282" s="20"/>
       <c r="C282" s="13"/>
@@ -9379,7 +9391,7 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B283" s="20"/>
       <c r="C283" s="13"/>
@@ -9397,7 +9409,7 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B284" s="20"/>
       <c r="C284" s="13"/>
@@ -9415,7 +9427,7 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B285" s="20"/>
       <c r="C285" s="13"/>
@@ -9433,7 +9445,7 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B286" s="20"/>
       <c r="C286" s="13"/>
@@ -9451,7 +9463,7 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B287" s="20"/>
       <c r="C287" s="13"/>
@@ -9469,7 +9481,7 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B288" s="20"/>
       <c r="C288" s="13"/>
@@ -9487,7 +9499,7 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B289" s="20"/>
       <c r="C289" s="13"/>
@@ -9505,7 +9517,7 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B290" s="20"/>
       <c r="C290" s="13"/>
@@ -9523,7 +9535,7 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B291" s="20"/>
       <c r="C291" s="13"/>
@@ -9541,7 +9553,7 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B292" s="20"/>
       <c r="C292" s="13"/>
@@ -9559,7 +9571,7 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B293" s="20"/>
       <c r="C293" s="13"/>
@@ -9577,7 +9589,7 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B294" s="20"/>
       <c r="C294" s="13"/>
@@ -9595,7 +9607,7 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B295" s="20"/>
       <c r="C295" s="13"/>
@@ -9613,7 +9625,7 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B296" s="20"/>
       <c r="C296" s="13"/>
@@ -9631,7 +9643,7 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B297" s="20"/>
       <c r="C297" s="13"/>
@@ -9649,7 +9661,7 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B298" s="20"/>
       <c r="C298" s="13"/>
@@ -9667,7 +9679,7 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="13"/>
@@ -9685,7 +9697,7 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B300" s="20"/>
       <c r="C300" s="13"/>
@@ -9703,7 +9715,7 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B301" s="20"/>
       <c r="C301" s="13"/>
@@ -9721,7 +9733,7 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B302" s="20"/>
       <c r="C302" s="13"/>
@@ -9739,7 +9751,7 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
-        <v>48030</v>
+        <v>48000</v>
       </c>
       <c r="B303" s="20"/>
       <c r="C303" s="13"/>
@@ -9757,7 +9769,7 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
-        <v>48061</v>
+        <v>48030</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="13"/>
@@ -9775,7 +9787,7 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
-        <v>48092</v>
+        <v>48061</v>
       </c>
       <c r="B305" s="20"/>
       <c r="C305" s="13"/>
@@ -9793,7 +9805,7 @@
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
-        <v>48122</v>
+        <v>48092</v>
       </c>
       <c r="B306" s="20"/>
       <c r="C306" s="13"/>
@@ -9811,7 +9823,7 @@
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
-        <v>48153</v>
+        <v>48122</v>
       </c>
       <c r="B307" s="20"/>
       <c r="C307" s="13"/>
@@ -9829,7 +9841,7 @@
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
-        <v>48183</v>
+        <v>48153</v>
       </c>
       <c r="B308" s="20"/>
       <c r="C308" s="13"/>
@@ -9847,7 +9859,7 @@
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
-        <v>48214</v>
+        <v>48183</v>
       </c>
       <c r="B309" s="20"/>
       <c r="C309" s="13"/>
@@ -9865,7 +9877,7 @@
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
-        <v>48245</v>
+        <v>48214</v>
       </c>
       <c r="B310" s="20"/>
       <c r="C310" s="13"/>
@@ -9883,7 +9895,7 @@
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
-        <v>48274</v>
+        <v>48245</v>
       </c>
       <c r="B311" s="20"/>
       <c r="C311" s="13"/>
@@ -9901,7 +9913,7 @@
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
-        <v>48305</v>
+        <v>48274</v>
       </c>
       <c r="B312" s="20"/>
       <c r="C312" s="13"/>
@@ -9919,7 +9931,7 @@
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
-        <v>48335</v>
+        <v>48305</v>
       </c>
       <c r="B313" s="20"/>
       <c r="C313" s="13"/>
@@ -9937,7 +9949,7 @@
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
-        <v>48366</v>
+        <v>48335</v>
       </c>
       <c r="B314" s="20"/>
       <c r="C314" s="13"/>
@@ -9955,7 +9967,7 @@
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
-        <v>48396</v>
+        <v>48366</v>
       </c>
       <c r="B315" s="20"/>
       <c r="C315" s="13"/>
@@ -9973,7 +9985,7 @@
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
-        <v>48427</v>
+        <v>48396</v>
       </c>
       <c r="B316" s="20"/>
       <c r="C316" s="13"/>
@@ -9991,7 +10003,7 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
-        <v>48458</v>
+        <v>48427</v>
       </c>
       <c r="B317" s="20"/>
       <c r="C317" s="13"/>
@@ -10009,7 +10021,7 @@
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
-        <v>48488</v>
+        <v>48458</v>
       </c>
       <c r="B318" s="20"/>
       <c r="C318" s="13"/>
@@ -10027,7 +10039,7 @@
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
-        <v>48519</v>
+        <v>48488</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="13"/>
@@ -10045,7 +10057,7 @@
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
-        <v>48549</v>
+        <v>48519</v>
       </c>
       <c r="B320" s="20"/>
       <c r="C320" s="13"/>
@@ -10063,7 +10075,7 @@
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
-        <v>48580</v>
+        <v>48549</v>
       </c>
       <c r="B321" s="20"/>
       <c r="C321" s="13"/>
@@ -10081,7 +10093,7 @@
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
-        <v>48611</v>
+        <v>48580</v>
       </c>
       <c r="B322" s="20"/>
       <c r="C322" s="13"/>
@@ -10099,7 +10111,7 @@
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
-        <v>48639</v>
+        <v>48611</v>
       </c>
       <c r="B323" s="20"/>
       <c r="C323" s="13"/>
@@ -10117,7 +10129,7 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
-        <v>48670</v>
+        <v>48639</v>
       </c>
       <c r="B324" s="20"/>
       <c r="C324" s="13"/>
@@ -10135,7 +10147,7 @@
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
-        <v>48700</v>
+        <v>48670</v>
       </c>
       <c r="B325" s="20"/>
       <c r="C325" s="13"/>
@@ -10153,7 +10165,7 @@
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
-        <v>48731</v>
+        <v>48700</v>
       </c>
       <c r="B326" s="20"/>
       <c r="C326" s="13"/>
@@ -10171,7 +10183,7 @@
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
-        <v>48761</v>
+        <v>48731</v>
       </c>
       <c r="B327" s="20"/>
       <c r="C327" s="13"/>
@@ -10189,7 +10201,7 @@
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
-        <v>48792</v>
+        <v>48761</v>
       </c>
       <c r="B328" s="20"/>
       <c r="C328" s="13"/>
@@ -10207,7 +10219,7 @@
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
-        <v>48823</v>
+        <v>48792</v>
       </c>
       <c r="B329" s="20"/>
       <c r="C329" s="13"/>
@@ -10225,7 +10237,7 @@
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
-        <v>48853</v>
+        <v>48823</v>
       </c>
       <c r="B330" s="20"/>
       <c r="C330" s="13"/>
@@ -10243,7 +10255,7 @@
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
-        <v>48884</v>
+        <v>48853</v>
       </c>
       <c r="B331" s="20"/>
       <c r="C331" s="13"/>
@@ -10261,7 +10273,7 @@
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
-        <v>48914</v>
+        <v>48884</v>
       </c>
       <c r="B332" s="20"/>
       <c r="C332" s="13"/>
@@ -10279,7 +10291,7 @@
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
-        <v>48945</v>
+        <v>48914</v>
       </c>
       <c r="B333" s="20"/>
       <c r="C333" s="13"/>
@@ -10297,7 +10309,7 @@
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
-        <v>48976</v>
+        <v>48945</v>
       </c>
       <c r="B334" s="20"/>
       <c r="C334" s="13"/>
@@ -10315,7 +10327,7 @@
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
-        <v>49004</v>
+        <v>48976</v>
       </c>
       <c r="B335" s="20"/>
       <c r="C335" s="13"/>
@@ -10333,7 +10345,7 @@
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
-        <v>49035</v>
+        <v>49004</v>
       </c>
       <c r="B336" s="20"/>
       <c r="C336" s="13"/>
@@ -10351,7 +10363,7 @@
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
-        <v>49065</v>
+        <v>49035</v>
       </c>
       <c r="B337" s="20"/>
       <c r="C337" s="13"/>
@@ -10369,7 +10381,7 @@
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
-        <v>49096</v>
+        <v>49065</v>
       </c>
       <c r="B338" s="20"/>
       <c r="C338" s="13"/>
@@ -10387,7 +10399,7 @@
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
-        <v>49126</v>
+        <v>49096</v>
       </c>
       <c r="B339" s="20"/>
       <c r="C339" s="13"/>
@@ -10405,7 +10417,7 @@
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
-        <v>49157</v>
+        <v>49126</v>
       </c>
       <c r="B340" s="20"/>
       <c r="C340" s="13"/>
@@ -10423,7 +10435,7 @@
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
-        <v>49188</v>
+        <v>49157</v>
       </c>
       <c r="B341" s="20"/>
       <c r="C341" s="13"/>
@@ -10441,7 +10453,7 @@
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
-        <v>49218</v>
+        <v>49188</v>
       </c>
       <c r="B342" s="20"/>
       <c r="C342" s="13"/>
@@ -10459,7 +10471,7 @@
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
-        <v>49249</v>
+        <v>49218</v>
       </c>
       <c r="B343" s="20"/>
       <c r="C343" s="13"/>
@@ -10477,7 +10489,7 @@
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
-        <v>49279</v>
+        <v>49249</v>
       </c>
       <c r="B344" s="20"/>
       <c r="C344" s="13"/>
@@ -10492,6 +10504,24 @@
       <c r="I344" s="9"/>
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A345" s="40">
+        <v>49279</v>
+      </c>
+      <c r="B345" s="20"/>
+      <c r="C345" s="13"/>
+      <c r="D345" s="39"/>
+      <c r="E345" s="9"/>
+      <c r="F345" s="20"/>
+      <c r="G345" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H345" s="39"/>
+      <c r="I345" s="9"/>
+      <c r="J345" s="11"/>
+      <c r="K345" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/ACCOUNTING/MAWAK, MIA PAULEEN BALBA.xlsx
+++ b/REGULAR/ACCOUNTING/MAWAK, MIA PAULEEN BALBA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="135">
   <si>
     <t>PERIOD</t>
   </si>
@@ -438,10 +438,7 @@
     <t>12/27-29/2023</t>
   </si>
   <si>
-    <t>01/02-12/2024</t>
-  </si>
-  <si>
-    <t>VL(9-0-0)</t>
+    <t>01/02-7/2024</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1307,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1353,7 +1350,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1417,7 +1414,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1477,7 +1474,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1543,7 +1540,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1606,7 +1603,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1704,7 +1701,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1763,7 +1760,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1828,7 +1825,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1871,7 +1868,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1946,7 +1943,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2132,7 +2129,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2198,7 +2195,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2256,7 +2253,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2322,7 +2319,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2378,7 +2375,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2453,7 +2450,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2496,7 +2493,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2562,7 +2559,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2618,7 +2615,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2716,7 +2713,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2779,7 +2776,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3228,7 +3225,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A193" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="C214" sqref="C214"/>
+      <selection pane="bottomLeft" activeCell="F215" sqref="F215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3393,7 +3390,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>81.967000000000013</v>
+        <v>86.967000000000013</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -8110,11 +8107,11 @@
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="C212" s="13"/>
       <c r="D212" s="39">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E212" s="9"/>
       <c r="F212" s="20"/>

--- a/REGULAR/ACCOUNTING/MAWAK, MIA PAULEEN BALBA.xlsx
+++ b/REGULAR/ACCOUNTING/MAWAK, MIA PAULEEN BALBA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="137">
   <si>
     <t>PERIOD</t>
   </si>
@@ -439,6 +439,12 @@
   </si>
   <si>
     <t>01/02-7/2024</t>
+  </si>
+  <si>
+    <t>ML(90-0-0)</t>
+  </si>
+  <si>
+    <t>MATERNITY 01/08/2024-04/21/2024</t>
   </si>
 </sst>
 </file>
@@ -675,7 +681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -858,6 +864,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1307,7 +1316,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1359,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1414,7 +1423,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1474,7 +1483,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1540,7 +1549,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1603,7 +1612,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1701,7 +1710,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1760,7 +1769,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1825,7 +1834,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1868,7 +1877,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1943,7 +1952,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2129,7 +2138,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2195,7 +2204,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,7 +2262,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2319,7 +2328,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2375,7 +2384,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2450,7 +2459,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2493,7 +2502,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2559,7 +2568,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2615,7 +2624,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2713,7 +2722,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2776,7 +2785,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3225,7 +3234,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A193" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="F215" sqref="F215"/>
+      <selection pane="bottomLeft" activeCell="B215" sqref="B215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8148,7 +8157,9 @@
       <c r="A214" s="40">
         <v>45292</v>
       </c>
-      <c r="B214" s="20"/>
+      <c r="B214" s="20" t="s">
+        <v>135</v>
+      </c>
       <c r="C214" s="13"/>
       <c r="D214" s="39"/>
       <c r="E214" s="9"/>
@@ -8160,7 +8171,9 @@
       <c r="H214" s="39"/>
       <c r="I214" s="9"/>
       <c r="J214" s="11"/>
-      <c r="K214" s="20"/>
+      <c r="K214" s="63" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">

--- a/REGULAR/ACCOUNTING/MAWAK, MIA PAULEEN BALBA.xlsx
+++ b/REGULAR/ACCOUNTING/MAWAK, MIA PAULEEN BALBA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="138">
   <si>
     <t>PERIOD</t>
   </si>
@@ -445,6 +445,9 @@
   </si>
   <si>
     <t>MATERNITY 01/08/2024-04/21/2024</t>
+  </si>
+  <si>
+    <t>UT(0-4-2)</t>
   </si>
 </sst>
 </file>
@@ -829,6 +832,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -864,9 +870,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2851,7 +2854,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K345" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K347" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3229,12 +3232,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K345"/>
+  <dimension ref="A2:K347"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A193" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B215" sqref="B215"/>
+      <selection pane="bottomLeft" activeCell="F211" sqref="F211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3256,66 +3259,66 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="52"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="60">
+      <c r="F3" s="61">
         <v>41106</v>
       </c>
-      <c r="G3" s="57"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="57"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3341,18 +3344,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3399,7 +3402,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>86.967000000000013</v>
+        <v>85.963000000000008</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -8042,85 +8045,79 @@
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C209" s="41">
-        <v>1.25</v>
-      </c>
-      <c r="D209" s="39"/>
+        <v>71</v>
+      </c>
+      <c r="C209" s="13"/>
+      <c r="D209" s="39">
+        <v>0.5</v>
+      </c>
       <c r="E209" s="9"/>
       <c r="F209" s="20"/>
-      <c r="G209" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G209" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H209" s="39"/>
       <c r="I209" s="9"/>
       <c r="J209" s="11"/>
-      <c r="K209" s="48">
-        <v>45261</v>
-      </c>
+      <c r="K209" s="48"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="40"/>
+      <c r="A210" s="40">
+        <v>45231</v>
+      </c>
       <c r="B210" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C210" s="13"/>
-      <c r="D210" s="39">
-        <v>1</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C210" s="41">
+        <v>1.25</v>
+      </c>
+      <c r="D210" s="39"/>
       <c r="E210" s="9"/>
       <c r="F210" s="20"/>
-      <c r="G210" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G210" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H210" s="39"/>
       <c r="I210" s="9"/>
       <c r="J210" s="11"/>
       <c r="K210" s="48">
-        <v>45253</v>
+        <v>45261</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C211" s="13">
-        <v>1.25</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C211" s="13"/>
       <c r="D211" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E211" s="9"/>
       <c r="F211" s="20"/>
-      <c r="G211" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G211" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H211" s="39"/>
       <c r="I211" s="9"/>
       <c r="J211" s="11"/>
-      <c r="K211" s="20" t="s">
-        <v>133</v>
+      <c r="K211" s="48">
+        <v>45253</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C212" s="13"/>
       <c r="D212" s="39">
-        <v>4</v>
+        <v>0.504</v>
       </c>
       <c r="E212" s="9"/>
       <c r="F212" s="20"/>
@@ -8131,37 +8128,43 @@
       <c r="H212" s="39"/>
       <c r="I212" s="9"/>
       <c r="J212" s="11"/>
-      <c r="K212" s="20" t="s">
-        <v>134</v>
-      </c>
+      <c r="K212" s="48"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="B213" s="20"/>
-      <c r="C213" s="13"/>
-      <c r="D213" s="39"/>
+      <c r="A213" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B213" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C213" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D213" s="39">
+        <v>3</v>
+      </c>
       <c r="E213" s="9"/>
       <c r="F213" s="20"/>
-      <c r="G213" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G213" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H213" s="39"/>
       <c r="I213" s="9"/>
       <c r="J213" s="11"/>
-      <c r="K213" s="20"/>
+      <c r="K213" s="20" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" s="40">
-        <v>45292</v>
-      </c>
+      <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="C214" s="13"/>
-      <c r="D214" s="39"/>
+      <c r="D214" s="39">
+        <v>4</v>
+      </c>
       <c r="E214" s="9"/>
       <c r="F214" s="20"/>
       <c r="G214" s="13" t="str">
@@ -8171,13 +8174,13 @@
       <c r="H214" s="39"/>
       <c r="I214" s="9"/>
       <c r="J214" s="11"/>
-      <c r="K214" s="63" t="s">
-        <v>136</v>
+      <c r="K214" s="20" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="40">
-        <v>45323</v>
+      <c r="A215" s="47" t="s">
+        <v>132</v>
       </c>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -8195,9 +8198,11 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B216" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B216" s="20" t="s">
+        <v>135</v>
+      </c>
       <c r="C216" s="13"/>
       <c r="D216" s="39"/>
       <c r="E216" s="9"/>
@@ -8209,11 +8214,13 @@
       <c r="H216" s="39"/>
       <c r="I216" s="9"/>
       <c r="J216" s="11"/>
-      <c r="K216" s="20"/>
+      <c r="K216" s="51" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -8231,7 +8238,7 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -8249,7 +8256,7 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -8267,7 +8274,7 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -8285,7 +8292,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -8303,7 +8310,7 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -8321,7 +8328,7 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -8339,7 +8346,7 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -8357,7 +8364,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -8375,7 +8382,7 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -8393,7 +8400,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -8411,7 +8418,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -8429,7 +8436,7 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -8447,7 +8454,7 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -8465,7 +8472,7 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -8483,7 +8490,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B232" s="20"/>
       <c r="C232" s="13"/>
@@ -8501,7 +8508,7 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B233" s="20"/>
       <c r="C233" s="13"/>
@@ -8519,7 +8526,7 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -8537,7 +8544,7 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B235" s="20"/>
       <c r="C235" s="13"/>
@@ -8555,7 +8562,7 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B236" s="20"/>
       <c r="C236" s="13"/>
@@ -8573,7 +8580,7 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B237" s="20"/>
       <c r="C237" s="13"/>
@@ -8591,7 +8598,7 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B238" s="20"/>
       <c r="C238" s="13"/>
@@ -8609,7 +8616,7 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B239" s="20"/>
       <c r="C239" s="13"/>
@@ -8627,7 +8634,7 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B240" s="20"/>
       <c r="C240" s="13"/>
@@ -8645,7 +8652,7 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B241" s="20"/>
       <c r="C241" s="13"/>
@@ -8663,7 +8670,7 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B242" s="20"/>
       <c r="C242" s="13"/>
@@ -8681,7 +8688,7 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B243" s="20"/>
       <c r="C243" s="13"/>
@@ -8699,7 +8706,7 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B244" s="20"/>
       <c r="C244" s="13"/>
@@ -8717,7 +8724,7 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B245" s="20"/>
       <c r="C245" s="13"/>
@@ -8735,7 +8742,7 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B246" s="20"/>
       <c r="C246" s="13"/>
@@ -8753,7 +8760,7 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B247" s="20"/>
       <c r="C247" s="13"/>
@@ -8771,7 +8778,7 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B248" s="20"/>
       <c r="C248" s="13"/>
@@ -8789,7 +8796,7 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B249" s="20"/>
       <c r="C249" s="13"/>
@@ -8807,7 +8814,7 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B250" s="20"/>
       <c r="C250" s="13"/>
@@ -8825,7 +8832,7 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
-        <v>46419</v>
+        <v>46357</v>
       </c>
       <c r="B251" s="20"/>
       <c r="C251" s="13"/>
@@ -8843,7 +8850,7 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
-        <v>46447</v>
+        <v>46388</v>
       </c>
       <c r="B252" s="20"/>
       <c r="C252" s="13"/>
@@ -8861,7 +8868,7 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
-        <v>46478</v>
+        <v>46419</v>
       </c>
       <c r="B253" s="20"/>
       <c r="C253" s="13"/>
@@ -8879,7 +8886,7 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
-        <v>46508</v>
+        <v>46447</v>
       </c>
       <c r="B254" s="20"/>
       <c r="C254" s="13"/>
@@ -8897,7 +8904,7 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
-        <v>46539</v>
+        <v>46478</v>
       </c>
       <c r="B255" s="20"/>
       <c r="C255" s="13"/>
@@ -8915,7 +8922,7 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
-        <v>46569</v>
+        <v>46508</v>
       </c>
       <c r="B256" s="20"/>
       <c r="C256" s="13"/>
@@ -8933,7 +8940,7 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
-        <v>46600</v>
+        <v>46539</v>
       </c>
       <c r="B257" s="20"/>
       <c r="C257" s="13"/>
@@ -8951,7 +8958,7 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
-        <v>46631</v>
+        <v>46569</v>
       </c>
       <c r="B258" s="20"/>
       <c r="C258" s="13"/>
@@ -8969,7 +8976,7 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
-        <v>46661</v>
+        <v>46600</v>
       </c>
       <c r="B259" s="20"/>
       <c r="C259" s="13"/>
@@ -8987,7 +8994,7 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
-        <v>46692</v>
+        <v>46631</v>
       </c>
       <c r="B260" s="20"/>
       <c r="C260" s="13"/>
@@ -9005,7 +9012,7 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
-        <v>46722</v>
+        <v>46661</v>
       </c>
       <c r="B261" s="20"/>
       <c r="C261" s="13"/>
@@ -9023,7 +9030,7 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
-        <v>46753</v>
+        <v>46692</v>
       </c>
       <c r="B262" s="20"/>
       <c r="C262" s="13"/>
@@ -9041,7 +9048,7 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
-        <v>46784</v>
+        <v>46722</v>
       </c>
       <c r="B263" s="20"/>
       <c r="C263" s="13"/>
@@ -9059,7 +9066,7 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
-        <v>46813</v>
+        <v>46753</v>
       </c>
       <c r="B264" s="20"/>
       <c r="C264" s="13"/>
@@ -9077,7 +9084,7 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
-        <v>46844</v>
+        <v>46784</v>
       </c>
       <c r="B265" s="20"/>
       <c r="C265" s="13"/>
@@ -9095,7 +9102,7 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
-        <v>46874</v>
+        <v>46813</v>
       </c>
       <c r="B266" s="20"/>
       <c r="C266" s="13"/>
@@ -9113,7 +9120,7 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
-        <v>46905</v>
+        <v>46844</v>
       </c>
       <c r="B267" s="20"/>
       <c r="C267" s="13"/>
@@ -9131,7 +9138,7 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
-        <v>46935</v>
+        <v>46874</v>
       </c>
       <c r="B268" s="20"/>
       <c r="C268" s="13"/>
@@ -9149,7 +9156,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
-        <v>46966</v>
+        <v>46905</v>
       </c>
       <c r="B269" s="20"/>
       <c r="C269" s="13"/>
@@ -9167,7 +9174,7 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
-        <v>46997</v>
+        <v>46935</v>
       </c>
       <c r="B270" s="20"/>
       <c r="C270" s="13"/>
@@ -9185,7 +9192,7 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
-        <v>47027</v>
+        <v>46966</v>
       </c>
       <c r="B271" s="20"/>
       <c r="C271" s="13"/>
@@ -9203,7 +9210,7 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
-        <v>47058</v>
+        <v>46997</v>
       </c>
       <c r="B272" s="20"/>
       <c r="C272" s="13"/>
@@ -9221,7 +9228,7 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
-        <v>47088</v>
+        <v>47027</v>
       </c>
       <c r="B273" s="20"/>
       <c r="C273" s="13"/>
@@ -9239,7 +9246,7 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
-        <v>47119</v>
+        <v>47058</v>
       </c>
       <c r="B274" s="20"/>
       <c r="C274" s="13"/>
@@ -9257,7 +9264,7 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
-        <v>47150</v>
+        <v>47088</v>
       </c>
       <c r="B275" s="20"/>
       <c r="C275" s="13"/>
@@ -9275,7 +9282,7 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
-        <v>47178</v>
+        <v>47119</v>
       </c>
       <c r="B276" s="20"/>
       <c r="C276" s="13"/>
@@ -9293,7 +9300,7 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
-        <v>47209</v>
+        <v>47150</v>
       </c>
       <c r="B277" s="20"/>
       <c r="C277" s="13"/>
@@ -9311,7 +9318,7 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
-        <v>47239</v>
+        <v>47178</v>
       </c>
       <c r="B278" s="20"/>
       <c r="C278" s="13"/>
@@ -9329,7 +9336,7 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
-        <v>47270</v>
+        <v>47209</v>
       </c>
       <c r="B279" s="20"/>
       <c r="C279" s="13"/>
@@ -9347,7 +9354,7 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
-        <v>47300</v>
+        <v>47239</v>
       </c>
       <c r="B280" s="20"/>
       <c r="C280" s="13"/>
@@ -9365,7 +9372,7 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
-        <v>47331</v>
+        <v>47270</v>
       </c>
       <c r="B281" s="20"/>
       <c r="C281" s="13"/>
@@ -9383,7 +9390,7 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
-        <v>47362</v>
+        <v>47300</v>
       </c>
       <c r="B282" s="20"/>
       <c r="C282" s="13"/>
@@ -9401,7 +9408,7 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
-        <v>47392</v>
+        <v>47331</v>
       </c>
       <c r="B283" s="20"/>
       <c r="C283" s="13"/>
@@ -9419,7 +9426,7 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
-        <v>47423</v>
+        <v>47362</v>
       </c>
       <c r="B284" s="20"/>
       <c r="C284" s="13"/>
@@ -9437,7 +9444,7 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
-        <v>47453</v>
+        <v>47392</v>
       </c>
       <c r="B285" s="20"/>
       <c r="C285" s="13"/>
@@ -9455,7 +9462,7 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
-        <v>47484</v>
+        <v>47423</v>
       </c>
       <c r="B286" s="20"/>
       <c r="C286" s="13"/>
@@ -9473,7 +9480,7 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
-        <v>47515</v>
+        <v>47453</v>
       </c>
       <c r="B287" s="20"/>
       <c r="C287" s="13"/>
@@ -9491,7 +9498,7 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
-        <v>47543</v>
+        <v>47484</v>
       </c>
       <c r="B288" s="20"/>
       <c r="C288" s="13"/>
@@ -9509,7 +9516,7 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
-        <v>47574</v>
+        <v>47515</v>
       </c>
       <c r="B289" s="20"/>
       <c r="C289" s="13"/>
@@ -9527,7 +9534,7 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
-        <v>47604</v>
+        <v>47543</v>
       </c>
       <c r="B290" s="20"/>
       <c r="C290" s="13"/>
@@ -9545,7 +9552,7 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
-        <v>47635</v>
+        <v>47574</v>
       </c>
       <c r="B291" s="20"/>
       <c r="C291" s="13"/>
@@ -9563,7 +9570,7 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
-        <v>47665</v>
+        <v>47604</v>
       </c>
       <c r="B292" s="20"/>
       <c r="C292" s="13"/>
@@ -9581,7 +9588,7 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
-        <v>47696</v>
+        <v>47635</v>
       </c>
       <c r="B293" s="20"/>
       <c r="C293" s="13"/>
@@ -9599,7 +9606,7 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
-        <v>47727</v>
+        <v>47665</v>
       </c>
       <c r="B294" s="20"/>
       <c r="C294" s="13"/>
@@ -9617,7 +9624,7 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
-        <v>47757</v>
+        <v>47696</v>
       </c>
       <c r="B295" s="20"/>
       <c r="C295" s="13"/>
@@ -9635,7 +9642,7 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
-        <v>47788</v>
+        <v>47727</v>
       </c>
       <c r="B296" s="20"/>
       <c r="C296" s="13"/>
@@ -9653,7 +9660,7 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
-        <v>47818</v>
+        <v>47757</v>
       </c>
       <c r="B297" s="20"/>
       <c r="C297" s="13"/>
@@ -9671,7 +9678,7 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
-        <v>47849</v>
+        <v>47788</v>
       </c>
       <c r="B298" s="20"/>
       <c r="C298" s="13"/>
@@ -9689,7 +9696,7 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
-        <v>47880</v>
+        <v>47818</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="13"/>
@@ -9707,7 +9714,7 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
-        <v>47908</v>
+        <v>47849</v>
       </c>
       <c r="B300" s="20"/>
       <c r="C300" s="13"/>
@@ -9725,7 +9732,7 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
-        <v>47939</v>
+        <v>47880</v>
       </c>
       <c r="B301" s="20"/>
       <c r="C301" s="13"/>
@@ -9743,7 +9750,7 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
-        <v>47969</v>
+        <v>47908</v>
       </c>
       <c r="B302" s="20"/>
       <c r="C302" s="13"/>
@@ -9761,7 +9768,7 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
-        <v>48000</v>
+        <v>47939</v>
       </c>
       <c r="B303" s="20"/>
       <c r="C303" s="13"/>
@@ -9779,7 +9786,7 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
-        <v>48030</v>
+        <v>47969</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="13"/>
@@ -9797,7 +9804,7 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
-        <v>48061</v>
+        <v>48000</v>
       </c>
       <c r="B305" s="20"/>
       <c r="C305" s="13"/>
@@ -9815,7 +9822,7 @@
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
-        <v>48092</v>
+        <v>48030</v>
       </c>
       <c r="B306" s="20"/>
       <c r="C306" s="13"/>
@@ -9833,7 +9840,7 @@
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
-        <v>48122</v>
+        <v>48061</v>
       </c>
       <c r="B307" s="20"/>
       <c r="C307" s="13"/>
@@ -9851,7 +9858,7 @@
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
-        <v>48153</v>
+        <v>48092</v>
       </c>
       <c r="B308" s="20"/>
       <c r="C308" s="13"/>
@@ -9869,7 +9876,7 @@
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
-        <v>48183</v>
+        <v>48122</v>
       </c>
       <c r="B309" s="20"/>
       <c r="C309" s="13"/>
@@ -9887,7 +9894,7 @@
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
-        <v>48214</v>
+        <v>48153</v>
       </c>
       <c r="B310" s="20"/>
       <c r="C310" s="13"/>
@@ -9905,7 +9912,7 @@
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
-        <v>48245</v>
+        <v>48183</v>
       </c>
       <c r="B311" s="20"/>
       <c r="C311" s="13"/>
@@ -9923,7 +9930,7 @@
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
-        <v>48274</v>
+        <v>48214</v>
       </c>
       <c r="B312" s="20"/>
       <c r="C312" s="13"/>
@@ -9941,7 +9948,7 @@
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
-        <v>48305</v>
+        <v>48245</v>
       </c>
       <c r="B313" s="20"/>
       <c r="C313" s="13"/>
@@ -9959,7 +9966,7 @@
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
-        <v>48335</v>
+        <v>48274</v>
       </c>
       <c r="B314" s="20"/>
       <c r="C314" s="13"/>
@@ -9977,7 +9984,7 @@
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
-        <v>48366</v>
+        <v>48305</v>
       </c>
       <c r="B315" s="20"/>
       <c r="C315" s="13"/>
@@ -9995,7 +10002,7 @@
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
-        <v>48396</v>
+        <v>48335</v>
       </c>
       <c r="B316" s="20"/>
       <c r="C316" s="13"/>
@@ -10013,7 +10020,7 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
-        <v>48427</v>
+        <v>48366</v>
       </c>
       <c r="B317" s="20"/>
       <c r="C317" s="13"/>
@@ -10031,7 +10038,7 @@
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
-        <v>48458</v>
+        <v>48396</v>
       </c>
       <c r="B318" s="20"/>
       <c r="C318" s="13"/>
@@ -10049,7 +10056,7 @@
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
-        <v>48488</v>
+        <v>48427</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="13"/>
@@ -10067,7 +10074,7 @@
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
-        <v>48519</v>
+        <v>48458</v>
       </c>
       <c r="B320" s="20"/>
       <c r="C320" s="13"/>
@@ -10085,7 +10092,7 @@
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
-        <v>48549</v>
+        <v>48488</v>
       </c>
       <c r="B321" s="20"/>
       <c r="C321" s="13"/>
@@ -10103,7 +10110,7 @@
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
-        <v>48580</v>
+        <v>48519</v>
       </c>
       <c r="B322" s="20"/>
       <c r="C322" s="13"/>
@@ -10121,7 +10128,7 @@
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
-        <v>48611</v>
+        <v>48549</v>
       </c>
       <c r="B323" s="20"/>
       <c r="C323" s="13"/>
@@ -10139,7 +10146,7 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
-        <v>48639</v>
+        <v>48580</v>
       </c>
       <c r="B324" s="20"/>
       <c r="C324" s="13"/>
@@ -10157,7 +10164,7 @@
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
-        <v>48670</v>
+        <v>48611</v>
       </c>
       <c r="B325" s="20"/>
       <c r="C325" s="13"/>
@@ -10175,7 +10182,7 @@
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
-        <v>48700</v>
+        <v>48639</v>
       </c>
       <c r="B326" s="20"/>
       <c r="C326" s="13"/>
@@ -10193,7 +10200,7 @@
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
-        <v>48731</v>
+        <v>48670</v>
       </c>
       <c r="B327" s="20"/>
       <c r="C327" s="13"/>
@@ -10211,7 +10218,7 @@
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
-        <v>48761</v>
+        <v>48700</v>
       </c>
       <c r="B328" s="20"/>
       <c r="C328" s="13"/>
@@ -10229,7 +10236,7 @@
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
-        <v>48792</v>
+        <v>48731</v>
       </c>
       <c r="B329" s="20"/>
       <c r="C329" s="13"/>
@@ -10247,7 +10254,7 @@
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
-        <v>48823</v>
+        <v>48761</v>
       </c>
       <c r="B330" s="20"/>
       <c r="C330" s="13"/>
@@ -10265,7 +10272,7 @@
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
-        <v>48853</v>
+        <v>48792</v>
       </c>
       <c r="B331" s="20"/>
       <c r="C331" s="13"/>
@@ -10283,7 +10290,7 @@
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
-        <v>48884</v>
+        <v>48823</v>
       </c>
       <c r="B332" s="20"/>
       <c r="C332" s="13"/>
@@ -10301,7 +10308,7 @@
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
-        <v>48914</v>
+        <v>48853</v>
       </c>
       <c r="B333" s="20"/>
       <c r="C333" s="13"/>
@@ -10319,7 +10326,7 @@
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
-        <v>48945</v>
+        <v>48884</v>
       </c>
       <c r="B334" s="20"/>
       <c r="C334" s="13"/>
@@ -10337,7 +10344,7 @@
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
-        <v>48976</v>
+        <v>48914</v>
       </c>
       <c r="B335" s="20"/>
       <c r="C335" s="13"/>
@@ -10355,7 +10362,7 @@
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
-        <v>49004</v>
+        <v>48945</v>
       </c>
       <c r="B336" s="20"/>
       <c r="C336" s="13"/>
@@ -10373,7 +10380,7 @@
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
-        <v>49035</v>
+        <v>48976</v>
       </c>
       <c r="B337" s="20"/>
       <c r="C337" s="13"/>
@@ -10391,7 +10398,7 @@
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
-        <v>49065</v>
+        <v>49004</v>
       </c>
       <c r="B338" s="20"/>
       <c r="C338" s="13"/>
@@ -10409,7 +10416,7 @@
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
-        <v>49096</v>
+        <v>49035</v>
       </c>
       <c r="B339" s="20"/>
       <c r="C339" s="13"/>
@@ -10427,7 +10434,7 @@
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
-        <v>49126</v>
+        <v>49065</v>
       </c>
       <c r="B340" s="20"/>
       <c r="C340" s="13"/>
@@ -10445,7 +10452,7 @@
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
-        <v>49157</v>
+        <v>49096</v>
       </c>
       <c r="B341" s="20"/>
       <c r="C341" s="13"/>
@@ -10463,7 +10470,7 @@
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
-        <v>49188</v>
+        <v>49126</v>
       </c>
       <c r="B342" s="20"/>
       <c r="C342" s="13"/>
@@ -10481,7 +10488,7 @@
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
-        <v>49218</v>
+        <v>49157</v>
       </c>
       <c r="B343" s="20"/>
       <c r="C343" s="13"/>
@@ -10499,7 +10506,7 @@
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
-        <v>49249</v>
+        <v>49188</v>
       </c>
       <c r="B344" s="20"/>
       <c r="C344" s="13"/>
@@ -10517,7 +10524,7 @@
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
-        <v>49279</v>
+        <v>49218</v>
       </c>
       <c r="B345" s="20"/>
       <c r="C345" s="13"/>
@@ -10532,6 +10539,42 @@
       <c r="I345" s="9"/>
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A346" s="40">
+        <v>49249</v>
+      </c>
+      <c r="B346" s="20"/>
+      <c r="C346" s="13"/>
+      <c r="D346" s="39"/>
+      <c r="E346" s="9"/>
+      <c r="F346" s="20"/>
+      <c r="G346" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H346" s="39"/>
+      <c r="I346" s="9"/>
+      <c r="J346" s="11"/>
+      <c r="K346" s="20"/>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A347" s="40">
+        <v>49279</v>
+      </c>
+      <c r="B347" s="20"/>
+      <c r="C347" s="13"/>
+      <c r="D347" s="39"/>
+      <c r="E347" s="9"/>
+      <c r="F347" s="20"/>
+      <c r="G347" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H347" s="39"/>
+      <c r="I347" s="9"/>
+      <c r="J347" s="11"/>
+      <c r="K347" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10597,17 +10640,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="J1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -10643,14 +10686,12 @@
       <c r="B3" s="11"/>
       <c r="D3"/>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>24</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F3"/>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>5.000000000000001E-2</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="1">
         <v>16</v>
@@ -10688,12 +10729,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">

--- a/REGULAR/ACCOUNTING/MAWAK, MIA PAULEEN BALBA.xlsx
+++ b/REGULAR/ACCOUNTING/MAWAK, MIA PAULEEN BALBA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="145">
   <si>
     <t>PERIOD</t>
   </si>
@@ -448,6 +448,27 @@
   </si>
   <si>
     <t>UT(0-4-2)</t>
+  </si>
+  <si>
+    <t>UT(0-0-2)</t>
+  </si>
+  <si>
+    <t>UT(0-1-24)</t>
+  </si>
+  <si>
+    <t>UT(0-0-22)</t>
+  </si>
+  <si>
+    <t>ut(0-0-3)</t>
+  </si>
+  <si>
+    <t>UT(0-1-7)</t>
+  </si>
+  <si>
+    <t>UT(0-0-1)</t>
+  </si>
+  <si>
+    <t>UT(0-0-6)</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1340,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1362,7 +1383,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1426,7 +1447,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1486,7 +1507,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1552,7 +1573,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1615,7 +1636,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1713,7 +1734,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1772,7 +1793,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1837,7 +1858,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1880,7 +1901,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1955,7 +1976,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2141,7 +2162,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2207,7 +2228,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2265,7 +2286,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2331,7 +2352,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2387,7 +2408,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2462,7 +2483,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2505,7 +2526,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2571,7 +2592,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2627,7 +2648,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2725,7 +2746,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2788,7 +2809,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2854,7 +2875,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K347" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K352" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3232,12 +3253,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K347"/>
+  <dimension ref="A2:K352"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A193" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="F211" sqref="F211"/>
+      <selection pane="bottomLeft" activeCell="E206" sqref="E206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3402,7 +3423,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>85.963000000000008</v>
+        <v>85.578000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -7829,36 +7850,32 @@
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C200" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D200" s="39"/>
+        <v>144</v>
+      </c>
+      <c r="C200" s="13"/>
+      <c r="D200" s="39">
+        <v>1.2E-2</v>
+      </c>
       <c r="E200" s="9"/>
       <c r="F200" s="20"/>
-      <c r="G200" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H200" s="39">
-        <v>1</v>
-      </c>
+      <c r="G200" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H200" s="39"/>
       <c r="I200" s="9"/>
       <c r="J200" s="11"/>
-      <c r="K200" s="48">
-        <v>44999</v>
-      </c>
+      <c r="K200" s="48"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B201" s="20"/>
+        <v>44986</v>
+      </c>
+      <c r="B201" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C201" s="13">
         <v>1.25</v>
       </c>
@@ -7869,158 +7886,154 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H201" s="39"/>
+      <c r="H201" s="39">
+        <v>1</v>
+      </c>
       <c r="I201" s="9"/>
       <c r="J201" s="11"/>
-      <c r="K201" s="20"/>
+      <c r="K201" s="48">
+        <v>44999</v>
+      </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="40">
-        <v>45047</v>
-      </c>
+      <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C202" s="13">
-        <v>1.25</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C202" s="13"/>
       <c r="D202" s="39">
-        <v>2</v>
+        <v>2E-3</v>
       </c>
       <c r="E202" s="9"/>
       <c r="F202" s="20"/>
-      <c r="G202" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G202" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H202" s="39"/>
       <c r="I202" s="9"/>
       <c r="J202" s="11"/>
-      <c r="K202" s="20" t="s">
-        <v>124</v>
-      </c>
+      <c r="K202" s="48"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="40"/>
-      <c r="B203" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C203" s="41"/>
-      <c r="D203" s="42"/>
-      <c r="E203" s="50"/>
-      <c r="F203" s="15"/>
-      <c r="G203" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H203" s="42">
-        <v>6</v>
-      </c>
-      <c r="I203" s="50"/>
-      <c r="J203" s="12"/>
-      <c r="K203" s="15" t="s">
-        <v>126</v>
-      </c>
+      <c r="A203" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B203" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C203" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D203" s="39">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E203" s="9"/>
+      <c r="F203" s="20"/>
+      <c r="G203" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H203" s="39"/>
+      <c r="I203" s="9"/>
+      <c r="J203" s="11"/>
+      <c r="K203" s="20"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B204" s="15"/>
-      <c r="C204" s="41">
-        <v>1.25</v>
-      </c>
-      <c r="D204" s="42"/>
-      <c r="E204" s="50"/>
-      <c r="F204" s="15"/>
-      <c r="G204" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H204" s="42"/>
-      <c r="I204" s="50"/>
-      <c r="J204" s="12"/>
-      <c r="K204" s="15"/>
+        <v>45047</v>
+      </c>
+      <c r="B204" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C204" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D204" s="39">
+        <v>2</v>
+      </c>
+      <c r="E204" s="9"/>
+      <c r="F204" s="20"/>
+      <c r="G204" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H204" s="39"/>
+      <c r="I204" s="9"/>
+      <c r="J204" s="11"/>
+      <c r="K204" s="20" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B205" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C205" s="41">
-        <v>1.25</v>
-      </c>
-      <c r="D205" s="39"/>
-      <c r="E205" s="9"/>
-      <c r="F205" s="20"/>
-      <c r="G205" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H205" s="39">
-        <v>1</v>
-      </c>
-      <c r="I205" s="9"/>
-      <c r="J205" s="11"/>
-      <c r="K205" s="48">
-        <v>45124</v>
+      <c r="A205" s="40"/>
+      <c r="B205" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C205" s="41"/>
+      <c r="D205" s="42"/>
+      <c r="E205" s="50"/>
+      <c r="F205" s="15"/>
+      <c r="G205" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H205" s="42">
+        <v>6</v>
+      </c>
+      <c r="I205" s="50"/>
+      <c r="J205" s="12"/>
+      <c r="K205" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C206" s="41">
-        <v>1.25</v>
-      </c>
-      <c r="D206" s="39"/>
+        <v>141</v>
+      </c>
+      <c r="C206" s="13"/>
+      <c r="D206" s="39">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="E206" s="9"/>
       <c r="F206" s="20"/>
-      <c r="G206" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G206" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H206" s="39"/>
       <c r="I206" s="9"/>
       <c r="J206" s="11"/>
-      <c r="K206" s="48">
-        <v>45167</v>
-      </c>
+      <c r="K206" s="20"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B207" s="20" t="s">
-        <v>54</v>
+        <v>45078</v>
+      </c>
+      <c r="B207" s="15" t="s">
+        <v>140</v>
       </c>
       <c r="C207" s="41">
         <v>1.25</v>
       </c>
-      <c r="D207" s="39"/>
-      <c r="E207" s="9"/>
-      <c r="F207" s="20"/>
-      <c r="G207" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H207" s="39">
-        <v>1</v>
-      </c>
-      <c r="I207" s="9"/>
-      <c r="J207" s="11"/>
-      <c r="K207" s="48">
-        <v>45196</v>
-      </c>
+      <c r="D207" s="42">
+        <v>4.6000000000000006E-2</v>
+      </c>
+      <c r="E207" s="50"/>
+      <c r="F207" s="15"/>
+      <c r="G207" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H207" s="42"/>
+      <c r="I207" s="50"/>
+      <c r="J207" s="12"/>
+      <c r="K207" s="15"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
-        <v>45200</v>
+        <v>45108</v>
       </c>
       <c r="B208" s="20" t="s">
         <v>54</v>
@@ -8041,17 +8054,17 @@
       <c r="I208" s="9"/>
       <c r="J208" s="11"/>
       <c r="K208" s="48">
-        <v>45215</v>
+        <v>45124</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="C209" s="13"/>
       <c r="D209" s="39">
-        <v>0.5</v>
+        <v>0.17500000000000002</v>
       </c>
       <c r="E209" s="9"/>
       <c r="F209" s="20"/>
@@ -8066,7 +8079,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
-        <v>45231</v>
+        <v>45139</v>
       </c>
       <c r="B210" s="20" t="s">
         <v>65</v>
@@ -8085,17 +8098,17 @@
       <c r="I210" s="9"/>
       <c r="J210" s="11"/>
       <c r="K210" s="48">
-        <v>45261</v>
+        <v>45167</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="C211" s="13"/>
       <c r="D211" s="39">
-        <v>1</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E211" s="9"/>
       <c r="F211" s="20"/>
@@ -8106,64 +8119,68 @@
       <c r="H211" s="39"/>
       <c r="I211" s="9"/>
       <c r="J211" s="11"/>
-      <c r="K211" s="48">
-        <v>45253</v>
-      </c>
+      <c r="K211" s="48"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" s="40"/>
+      <c r="A212" s="40">
+        <v>45170</v>
+      </c>
       <c r="B212" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C212" s="13"/>
-      <c r="D212" s="39">
-        <v>0.504</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C212" s="41">
+        <v>1.25</v>
+      </c>
+      <c r="D212" s="39"/>
       <c r="E212" s="9"/>
       <c r="F212" s="20"/>
-      <c r="G212" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H212" s="39"/>
+      <c r="G212" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H212" s="39">
+        <v>1</v>
+      </c>
       <c r="I212" s="9"/>
       <c r="J212" s="11"/>
-      <c r="K212" s="48"/>
+      <c r="K212" s="48">
+        <v>45196</v>
+      </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B213" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C213" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D213" s="39">
-        <v>3</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C213" s="41">
+        <v>1.25</v>
+      </c>
+      <c r="D213" s="39"/>
       <c r="E213" s="9"/>
       <c r="F213" s="20"/>
       <c r="G213" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H213" s="39"/>
+      <c r="H213" s="39">
+        <v>1</v>
+      </c>
       <c r="I213" s="9"/>
       <c r="J213" s="11"/>
-      <c r="K213" s="20" t="s">
-        <v>133</v>
+      <c r="K213" s="48">
+        <v>45215</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="C214" s="13"/>
       <c r="D214" s="39">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="E214" s="9"/>
       <c r="F214" s="20"/>
@@ -8174,37 +8191,41 @@
       <c r="H214" s="39"/>
       <c r="I214" s="9"/>
       <c r="J214" s="11"/>
-      <c r="K214" s="20" t="s">
-        <v>134</v>
-      </c>
+      <c r="K214" s="48"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="B215" s="20"/>
-      <c r="C215" s="13"/>
+      <c r="A215" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B215" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C215" s="41">
+        <v>1.25</v>
+      </c>
       <c r="D215" s="39"/>
       <c r="E215" s="9"/>
       <c r="F215" s="20"/>
-      <c r="G215" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G215" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H215" s="39"/>
       <c r="I215" s="9"/>
       <c r="J215" s="11"/>
-      <c r="K215" s="20"/>
+      <c r="K215" s="48">
+        <v>45261</v>
+      </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A216" s="40">
-        <v>45292</v>
-      </c>
+      <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="C216" s="13"/>
-      <c r="D216" s="39"/>
+      <c r="D216" s="39">
+        <v>1</v>
+      </c>
       <c r="E216" s="9"/>
       <c r="F216" s="20"/>
       <c r="G216" s="13" t="str">
@@ -8214,17 +8235,19 @@
       <c r="H216" s="39"/>
       <c r="I216" s="9"/>
       <c r="J216" s="11"/>
-      <c r="K216" s="51" t="s">
-        <v>136</v>
+      <c r="K216" s="48">
+        <v>45253</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A217" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B217" s="20"/>
+      <c r="A217" s="40"/>
+      <c r="B217" s="20" t="s">
+        <v>137</v>
+      </c>
       <c r="C217" s="13"/>
-      <c r="D217" s="39"/>
+      <c r="D217" s="39">
+        <v>0.504</v>
+      </c>
       <c r="E217" s="9"/>
       <c r="F217" s="20"/>
       <c r="G217" s="13" t="str">
@@ -8234,33 +8257,43 @@
       <c r="H217" s="39"/>
       <c r="I217" s="9"/>
       <c r="J217" s="11"/>
-      <c r="K217" s="20"/>
+      <c r="K217" s="48"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B218" s="20"/>
-      <c r="C218" s="13"/>
-      <c r="D218" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B218" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C218" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D218" s="39">
+        <v>3</v>
+      </c>
       <c r="E218" s="9"/>
       <c r="F218" s="20"/>
-      <c r="G218" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G218" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H218" s="39"/>
       <c r="I218" s="9"/>
       <c r="J218" s="11"/>
-      <c r="K218" s="20"/>
+      <c r="K218" s="20" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B219" s="20"/>
+      <c r="A219" s="40"/>
+      <c r="B219" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="C219" s="13"/>
-      <c r="D219" s="39"/>
+      <c r="D219" s="39">
+        <v>4</v>
+      </c>
       <c r="E219" s="9"/>
       <c r="F219" s="20"/>
       <c r="G219" s="13" t="str">
@@ -8270,11 +8303,13 @@
       <c r="H219" s="39"/>
       <c r="I219" s="9"/>
       <c r="J219" s="11"/>
-      <c r="K219" s="20"/>
+      <c r="K219" s="20" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" s="40">
-        <v>45413</v>
+      <c r="A220" s="47" t="s">
+        <v>132</v>
       </c>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -8292,9 +8327,11 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
-        <v>45444</v>
-      </c>
-      <c r="B221" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B221" s="20" t="s">
+        <v>135</v>
+      </c>
       <c r="C221" s="13"/>
       <c r="D221" s="39"/>
       <c r="E221" s="9"/>
@@ -8306,11 +8343,13 @@
       <c r="H221" s="39"/>
       <c r="I221" s="9"/>
       <c r="J221" s="11"/>
-      <c r="K221" s="20"/>
+      <c r="K221" s="51" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
-        <v>45474</v>
+        <v>45323</v>
       </c>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -8328,7 +8367,7 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
-        <v>45505</v>
+        <v>45352</v>
       </c>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -8346,7 +8385,7 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
-        <v>45536</v>
+        <v>45383</v>
       </c>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -8364,7 +8403,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
-        <v>45566</v>
+        <v>45413</v>
       </c>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -8382,7 +8421,7 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
-        <v>45597</v>
+        <v>45444</v>
       </c>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -8400,7 +8439,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
-        <v>45627</v>
+        <v>45474</v>
       </c>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -8418,7 +8457,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
-        <v>45658</v>
+        <v>45505</v>
       </c>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -8436,7 +8475,7 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
-        <v>45689</v>
+        <v>45536</v>
       </c>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -8454,7 +8493,7 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
-        <v>45717</v>
+        <v>45566</v>
       </c>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -8472,7 +8511,7 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
-        <v>45748</v>
+        <v>45597</v>
       </c>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -8490,7 +8529,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
-        <v>45778</v>
+        <v>45627</v>
       </c>
       <c r="B232" s="20"/>
       <c r="C232" s="13"/>
@@ -8508,7 +8547,7 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
-        <v>45809</v>
+        <v>45658</v>
       </c>
       <c r="B233" s="20"/>
       <c r="C233" s="13"/>
@@ -8526,7 +8565,7 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
-        <v>45839</v>
+        <v>45689</v>
       </c>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -8544,7 +8583,7 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
-        <v>45870</v>
+        <v>45717</v>
       </c>
       <c r="B235" s="20"/>
       <c r="C235" s="13"/>
@@ -8562,7 +8601,7 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
-        <v>45901</v>
+        <v>45748</v>
       </c>
       <c r="B236" s="20"/>
       <c r="C236" s="13"/>
@@ -8580,7 +8619,7 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
-        <v>45931</v>
+        <v>45778</v>
       </c>
       <c r="B237" s="20"/>
       <c r="C237" s="13"/>
@@ -8598,7 +8637,7 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
-        <v>45962</v>
+        <v>45809</v>
       </c>
       <c r="B238" s="20"/>
       <c r="C238" s="13"/>
@@ -8616,7 +8655,7 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
-        <v>45992</v>
+        <v>45839</v>
       </c>
       <c r="B239" s="20"/>
       <c r="C239" s="13"/>
@@ -8634,7 +8673,7 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
-        <v>46023</v>
+        <v>45870</v>
       </c>
       <c r="B240" s="20"/>
       <c r="C240" s="13"/>
@@ -8652,7 +8691,7 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
-        <v>46054</v>
+        <v>45901</v>
       </c>
       <c r="B241" s="20"/>
       <c r="C241" s="13"/>
@@ -8670,7 +8709,7 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
-        <v>46082</v>
+        <v>45931</v>
       </c>
       <c r="B242" s="20"/>
       <c r="C242" s="13"/>
@@ -8688,7 +8727,7 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
-        <v>46113</v>
+        <v>45962</v>
       </c>
       <c r="B243" s="20"/>
       <c r="C243" s="13"/>
@@ -8706,7 +8745,7 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
-        <v>46143</v>
+        <v>45992</v>
       </c>
       <c r="B244" s="20"/>
       <c r="C244" s="13"/>
@@ -8724,7 +8763,7 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
-        <v>46174</v>
+        <v>46023</v>
       </c>
       <c r="B245" s="20"/>
       <c r="C245" s="13"/>
@@ -8742,7 +8781,7 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
-        <v>46204</v>
+        <v>46054</v>
       </c>
       <c r="B246" s="20"/>
       <c r="C246" s="13"/>
@@ -8760,7 +8799,7 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
-        <v>46235</v>
+        <v>46082</v>
       </c>
       <c r="B247" s="20"/>
       <c r="C247" s="13"/>
@@ -8778,7 +8817,7 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
-        <v>46266</v>
+        <v>46113</v>
       </c>
       <c r="B248" s="20"/>
       <c r="C248" s="13"/>
@@ -8796,7 +8835,7 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
-        <v>46296</v>
+        <v>46143</v>
       </c>
       <c r="B249" s="20"/>
       <c r="C249" s="13"/>
@@ -8814,7 +8853,7 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
-        <v>46327</v>
+        <v>46174</v>
       </c>
       <c r="B250" s="20"/>
       <c r="C250" s="13"/>
@@ -8832,7 +8871,7 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
-        <v>46357</v>
+        <v>46204</v>
       </c>
       <c r="B251" s="20"/>
       <c r="C251" s="13"/>
@@ -8850,7 +8889,7 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
-        <v>46388</v>
+        <v>46235</v>
       </c>
       <c r="B252" s="20"/>
       <c r="C252" s="13"/>
@@ -8868,7 +8907,7 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
-        <v>46419</v>
+        <v>46266</v>
       </c>
       <c r="B253" s="20"/>
       <c r="C253" s="13"/>
@@ -8886,7 +8925,7 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
-        <v>46447</v>
+        <v>46296</v>
       </c>
       <c r="B254" s="20"/>
       <c r="C254" s="13"/>
@@ -8904,7 +8943,7 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
-        <v>46478</v>
+        <v>46327</v>
       </c>
       <c r="B255" s="20"/>
       <c r="C255" s="13"/>
@@ -8922,7 +8961,7 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
-        <v>46508</v>
+        <v>46357</v>
       </c>
       <c r="B256" s="20"/>
       <c r="C256" s="13"/>
@@ -8940,7 +8979,7 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
-        <v>46539</v>
+        <v>46388</v>
       </c>
       <c r="B257" s="20"/>
       <c r="C257" s="13"/>
@@ -8958,7 +8997,7 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
-        <v>46569</v>
+        <v>46419</v>
       </c>
       <c r="B258" s="20"/>
       <c r="C258" s="13"/>
@@ -8976,7 +9015,7 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
-        <v>46600</v>
+        <v>46447</v>
       </c>
       <c r="B259" s="20"/>
       <c r="C259" s="13"/>
@@ -8994,7 +9033,7 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
-        <v>46631</v>
+        <v>46478</v>
       </c>
       <c r="B260" s="20"/>
       <c r="C260" s="13"/>
@@ -9012,7 +9051,7 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
-        <v>46661</v>
+        <v>46508</v>
       </c>
       <c r="B261" s="20"/>
       <c r="C261" s="13"/>
@@ -9030,7 +9069,7 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
-        <v>46692</v>
+        <v>46539</v>
       </c>
       <c r="B262" s="20"/>
       <c r="C262" s="13"/>
@@ -9048,7 +9087,7 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
-        <v>46722</v>
+        <v>46569</v>
       </c>
       <c r="B263" s="20"/>
       <c r="C263" s="13"/>
@@ -9066,7 +9105,7 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
-        <v>46753</v>
+        <v>46600</v>
       </c>
       <c r="B264" s="20"/>
       <c r="C264" s="13"/>
@@ -9084,7 +9123,7 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
-        <v>46784</v>
+        <v>46631</v>
       </c>
       <c r="B265" s="20"/>
       <c r="C265" s="13"/>
@@ -9102,7 +9141,7 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
-        <v>46813</v>
+        <v>46661</v>
       </c>
       <c r="B266" s="20"/>
       <c r="C266" s="13"/>
@@ -9120,7 +9159,7 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
-        <v>46844</v>
+        <v>46692</v>
       </c>
       <c r="B267" s="20"/>
       <c r="C267" s="13"/>
@@ -9138,7 +9177,7 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
-        <v>46874</v>
+        <v>46722</v>
       </c>
       <c r="B268" s="20"/>
       <c r="C268" s="13"/>
@@ -9156,7 +9195,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
-        <v>46905</v>
+        <v>46753</v>
       </c>
       <c r="B269" s="20"/>
       <c r="C269" s="13"/>
@@ -9174,7 +9213,7 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
-        <v>46935</v>
+        <v>46784</v>
       </c>
       <c r="B270" s="20"/>
       <c r="C270" s="13"/>
@@ -9192,7 +9231,7 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
-        <v>46966</v>
+        <v>46813</v>
       </c>
       <c r="B271" s="20"/>
       <c r="C271" s="13"/>
@@ -9210,7 +9249,7 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
-        <v>46997</v>
+        <v>46844</v>
       </c>
       <c r="B272" s="20"/>
       <c r="C272" s="13"/>
@@ -9228,7 +9267,7 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
-        <v>47027</v>
+        <v>46874</v>
       </c>
       <c r="B273" s="20"/>
       <c r="C273" s="13"/>
@@ -9246,7 +9285,7 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
-        <v>47058</v>
+        <v>46905</v>
       </c>
       <c r="B274" s="20"/>
       <c r="C274" s="13"/>
@@ -9264,7 +9303,7 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
-        <v>47088</v>
+        <v>46935</v>
       </c>
       <c r="B275" s="20"/>
       <c r="C275" s="13"/>
@@ -9282,7 +9321,7 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
-        <v>47119</v>
+        <v>46966</v>
       </c>
       <c r="B276" s="20"/>
       <c r="C276" s="13"/>
@@ -9300,7 +9339,7 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
-        <v>47150</v>
+        <v>46997</v>
       </c>
       <c r="B277" s="20"/>
       <c r="C277" s="13"/>
@@ -9318,7 +9357,7 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
-        <v>47178</v>
+        <v>47027</v>
       </c>
       <c r="B278" s="20"/>
       <c r="C278" s="13"/>
@@ -9336,7 +9375,7 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
-        <v>47209</v>
+        <v>47058</v>
       </c>
       <c r="B279" s="20"/>
       <c r="C279" s="13"/>
@@ -9354,7 +9393,7 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
-        <v>47239</v>
+        <v>47088</v>
       </c>
       <c r="B280" s="20"/>
       <c r="C280" s="13"/>
@@ -9372,7 +9411,7 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
-        <v>47270</v>
+        <v>47119</v>
       </c>
       <c r="B281" s="20"/>
       <c r="C281" s="13"/>
@@ -9390,7 +9429,7 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
-        <v>47300</v>
+        <v>47150</v>
       </c>
       <c r="B282" s="20"/>
       <c r="C282" s="13"/>
@@ -9408,7 +9447,7 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
-        <v>47331</v>
+        <v>47178</v>
       </c>
       <c r="B283" s="20"/>
       <c r="C283" s="13"/>
@@ -9426,7 +9465,7 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
-        <v>47362</v>
+        <v>47209</v>
       </c>
       <c r="B284" s="20"/>
       <c r="C284" s="13"/>
@@ -9444,7 +9483,7 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
-        <v>47392</v>
+        <v>47239</v>
       </c>
       <c r="B285" s="20"/>
       <c r="C285" s="13"/>
@@ -9462,7 +9501,7 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
-        <v>47423</v>
+        <v>47270</v>
       </c>
       <c r="B286" s="20"/>
       <c r="C286" s="13"/>
@@ -9480,7 +9519,7 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
-        <v>47453</v>
+        <v>47300</v>
       </c>
       <c r="B287" s="20"/>
       <c r="C287" s="13"/>
@@ -9498,7 +9537,7 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
-        <v>47484</v>
+        <v>47331</v>
       </c>
       <c r="B288" s="20"/>
       <c r="C288" s="13"/>
@@ -9516,7 +9555,7 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
-        <v>47515</v>
+        <v>47362</v>
       </c>
       <c r="B289" s="20"/>
       <c r="C289" s="13"/>
@@ -9534,7 +9573,7 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
-        <v>47543</v>
+        <v>47392</v>
       </c>
       <c r="B290" s="20"/>
       <c r="C290" s="13"/>
@@ -9552,7 +9591,7 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
-        <v>47574</v>
+        <v>47423</v>
       </c>
       <c r="B291" s="20"/>
       <c r="C291" s="13"/>
@@ -9570,7 +9609,7 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
-        <v>47604</v>
+        <v>47453</v>
       </c>
       <c r="B292" s="20"/>
       <c r="C292" s="13"/>
@@ -9588,7 +9627,7 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
-        <v>47635</v>
+        <v>47484</v>
       </c>
       <c r="B293" s="20"/>
       <c r="C293" s="13"/>
@@ -9606,7 +9645,7 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
-        <v>47665</v>
+        <v>47515</v>
       </c>
       <c r="B294" s="20"/>
       <c r="C294" s="13"/>
@@ -9624,7 +9663,7 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
-        <v>47696</v>
+        <v>47543</v>
       </c>
       <c r="B295" s="20"/>
       <c r="C295" s="13"/>
@@ -9642,7 +9681,7 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
-        <v>47727</v>
+        <v>47574</v>
       </c>
       <c r="B296" s="20"/>
       <c r="C296" s="13"/>
@@ -9660,7 +9699,7 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
-        <v>47757</v>
+        <v>47604</v>
       </c>
       <c r="B297" s="20"/>
       <c r="C297" s="13"/>
@@ -9678,7 +9717,7 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
-        <v>47788</v>
+        <v>47635</v>
       </c>
       <c r="B298" s="20"/>
       <c r="C298" s="13"/>
@@ -9696,7 +9735,7 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
-        <v>47818</v>
+        <v>47665</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="13"/>
@@ -9714,7 +9753,7 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
-        <v>47849</v>
+        <v>47696</v>
       </c>
       <c r="B300" s="20"/>
       <c r="C300" s="13"/>
@@ -9732,7 +9771,7 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
-        <v>47880</v>
+        <v>47727</v>
       </c>
       <c r="B301" s="20"/>
       <c r="C301" s="13"/>
@@ -9750,7 +9789,7 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
-        <v>47908</v>
+        <v>47757</v>
       </c>
       <c r="B302" s="20"/>
       <c r="C302" s="13"/>
@@ -9768,7 +9807,7 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
-        <v>47939</v>
+        <v>47788</v>
       </c>
       <c r="B303" s="20"/>
       <c r="C303" s="13"/>
@@ -9786,7 +9825,7 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
-        <v>47969</v>
+        <v>47818</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="13"/>
@@ -9804,7 +9843,7 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
-        <v>48000</v>
+        <v>47849</v>
       </c>
       <c r="B305" s="20"/>
       <c r="C305" s="13"/>
@@ -9822,7 +9861,7 @@
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
-        <v>48030</v>
+        <v>47880</v>
       </c>
       <c r="B306" s="20"/>
       <c r="C306" s="13"/>
@@ -9840,7 +9879,7 @@
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
-        <v>48061</v>
+        <v>47908</v>
       </c>
       <c r="B307" s="20"/>
       <c r="C307" s="13"/>
@@ -9858,7 +9897,7 @@
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
-        <v>48092</v>
+        <v>47939</v>
       </c>
       <c r="B308" s="20"/>
       <c r="C308" s="13"/>
@@ -9876,7 +9915,7 @@
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
-        <v>48122</v>
+        <v>47969</v>
       </c>
       <c r="B309" s="20"/>
       <c r="C309" s="13"/>
@@ -9894,7 +9933,7 @@
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
-        <v>48153</v>
+        <v>48000</v>
       </c>
       <c r="B310" s="20"/>
       <c r="C310" s="13"/>
@@ -9912,7 +9951,7 @@
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
-        <v>48183</v>
+        <v>48030</v>
       </c>
       <c r="B311" s="20"/>
       <c r="C311" s="13"/>
@@ -9930,7 +9969,7 @@
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
-        <v>48214</v>
+        <v>48061</v>
       </c>
       <c r="B312" s="20"/>
       <c r="C312" s="13"/>
@@ -9948,7 +9987,7 @@
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
-        <v>48245</v>
+        <v>48092</v>
       </c>
       <c r="B313" s="20"/>
       <c r="C313" s="13"/>
@@ -9966,7 +10005,7 @@
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
-        <v>48274</v>
+        <v>48122</v>
       </c>
       <c r="B314" s="20"/>
       <c r="C314" s="13"/>
@@ -9984,7 +10023,7 @@
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
-        <v>48305</v>
+        <v>48153</v>
       </c>
       <c r="B315" s="20"/>
       <c r="C315" s="13"/>
@@ -10002,7 +10041,7 @@
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
-        <v>48335</v>
+        <v>48183</v>
       </c>
       <c r="B316" s="20"/>
       <c r="C316" s="13"/>
@@ -10020,7 +10059,7 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
-        <v>48366</v>
+        <v>48214</v>
       </c>
       <c r="B317" s="20"/>
       <c r="C317" s="13"/>
@@ -10038,7 +10077,7 @@
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
-        <v>48396</v>
+        <v>48245</v>
       </c>
       <c r="B318" s="20"/>
       <c r="C318" s="13"/>
@@ -10056,7 +10095,7 @@
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
-        <v>48427</v>
+        <v>48274</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="13"/>
@@ -10074,7 +10113,7 @@
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
-        <v>48458</v>
+        <v>48305</v>
       </c>
       <c r="B320" s="20"/>
       <c r="C320" s="13"/>
@@ -10092,7 +10131,7 @@
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
-        <v>48488</v>
+        <v>48335</v>
       </c>
       <c r="B321" s="20"/>
       <c r="C321" s="13"/>
@@ -10110,7 +10149,7 @@
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
-        <v>48519</v>
+        <v>48366</v>
       </c>
       <c r="B322" s="20"/>
       <c r="C322" s="13"/>
@@ -10128,7 +10167,7 @@
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
-        <v>48549</v>
+        <v>48396</v>
       </c>
       <c r="B323" s="20"/>
       <c r="C323" s="13"/>
@@ -10146,7 +10185,7 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
-        <v>48580</v>
+        <v>48427</v>
       </c>
       <c r="B324" s="20"/>
       <c r="C324" s="13"/>
@@ -10164,7 +10203,7 @@
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
-        <v>48611</v>
+        <v>48458</v>
       </c>
       <c r="B325" s="20"/>
       <c r="C325" s="13"/>
@@ -10182,7 +10221,7 @@
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
-        <v>48639</v>
+        <v>48488</v>
       </c>
       <c r="B326" s="20"/>
       <c r="C326" s="13"/>
@@ -10200,7 +10239,7 @@
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
-        <v>48670</v>
+        <v>48519</v>
       </c>
       <c r="B327" s="20"/>
       <c r="C327" s="13"/>
@@ -10218,7 +10257,7 @@
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
-        <v>48700</v>
+        <v>48549</v>
       </c>
       <c r="B328" s="20"/>
       <c r="C328" s="13"/>
@@ -10236,7 +10275,7 @@
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
-        <v>48731</v>
+        <v>48580</v>
       </c>
       <c r="B329" s="20"/>
       <c r="C329" s="13"/>
@@ -10254,7 +10293,7 @@
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
-        <v>48761</v>
+        <v>48611</v>
       </c>
       <c r="B330" s="20"/>
       <c r="C330" s="13"/>
@@ -10272,7 +10311,7 @@
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
-        <v>48792</v>
+        <v>48639</v>
       </c>
       <c r="B331" s="20"/>
       <c r="C331" s="13"/>
@@ -10290,7 +10329,7 @@
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
-        <v>48823</v>
+        <v>48670</v>
       </c>
       <c r="B332" s="20"/>
       <c r="C332" s="13"/>
@@ -10308,7 +10347,7 @@
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
-        <v>48853</v>
+        <v>48700</v>
       </c>
       <c r="B333" s="20"/>
       <c r="C333" s="13"/>
@@ -10326,7 +10365,7 @@
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
-        <v>48884</v>
+        <v>48731</v>
       </c>
       <c r="B334" s="20"/>
       <c r="C334" s="13"/>
@@ -10344,7 +10383,7 @@
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
-        <v>48914</v>
+        <v>48761</v>
       </c>
       <c r="B335" s="20"/>
       <c r="C335" s="13"/>
@@ -10362,7 +10401,7 @@
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
-        <v>48945</v>
+        <v>48792</v>
       </c>
       <c r="B336" s="20"/>
       <c r="C336" s="13"/>
@@ -10380,7 +10419,7 @@
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
-        <v>48976</v>
+        <v>48823</v>
       </c>
       <c r="B337" s="20"/>
       <c r="C337" s="13"/>
@@ -10398,7 +10437,7 @@
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
-        <v>49004</v>
+        <v>48853</v>
       </c>
       <c r="B338" s="20"/>
       <c r="C338" s="13"/>
@@ -10416,7 +10455,7 @@
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
-        <v>49035</v>
+        <v>48884</v>
       </c>
       <c r="B339" s="20"/>
       <c r="C339" s="13"/>
@@ -10434,7 +10473,7 @@
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
-        <v>49065</v>
+        <v>48914</v>
       </c>
       <c r="B340" s="20"/>
       <c r="C340" s="13"/>
@@ -10452,7 +10491,7 @@
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
-        <v>49096</v>
+        <v>48945</v>
       </c>
       <c r="B341" s="20"/>
       <c r="C341" s="13"/>
@@ -10470,7 +10509,7 @@
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
-        <v>49126</v>
+        <v>48976</v>
       </c>
       <c r="B342" s="20"/>
       <c r="C342" s="13"/>
@@ -10488,7 +10527,7 @@
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
-        <v>49157</v>
+        <v>49004</v>
       </c>
       <c r="B343" s="20"/>
       <c r="C343" s="13"/>
@@ -10506,7 +10545,7 @@
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
-        <v>49188</v>
+        <v>49035</v>
       </c>
       <c r="B344" s="20"/>
       <c r="C344" s="13"/>
@@ -10524,7 +10563,7 @@
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
-        <v>49218</v>
+        <v>49065</v>
       </c>
       <c r="B345" s="20"/>
       <c r="C345" s="13"/>
@@ -10542,7 +10581,7 @@
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
-        <v>49249</v>
+        <v>49096</v>
       </c>
       <c r="B346" s="20"/>
       <c r="C346" s="13"/>
@@ -10560,7 +10599,7 @@
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
-        <v>49279</v>
+        <v>49126</v>
       </c>
       <c r="B347" s="20"/>
       <c r="C347" s="13"/>
@@ -10575,6 +10614,96 @@
       <c r="I347" s="9"/>
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A348" s="40">
+        <v>49157</v>
+      </c>
+      <c r="B348" s="20"/>
+      <c r="C348" s="13"/>
+      <c r="D348" s="39"/>
+      <c r="E348" s="9"/>
+      <c r="F348" s="20"/>
+      <c r="G348" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H348" s="39"/>
+      <c r="I348" s="9"/>
+      <c r="J348" s="11"/>
+      <c r="K348" s="20"/>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A349" s="40">
+        <v>49188</v>
+      </c>
+      <c r="B349" s="20"/>
+      <c r="C349" s="13"/>
+      <c r="D349" s="39"/>
+      <c r="E349" s="9"/>
+      <c r="F349" s="20"/>
+      <c r="G349" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H349" s="39"/>
+      <c r="I349" s="9"/>
+      <c r="J349" s="11"/>
+      <c r="K349" s="20"/>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A350" s="40">
+        <v>49218</v>
+      </c>
+      <c r="B350" s="20"/>
+      <c r="C350" s="13"/>
+      <c r="D350" s="39"/>
+      <c r="E350" s="9"/>
+      <c r="F350" s="20"/>
+      <c r="G350" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H350" s="39"/>
+      <c r="I350" s="9"/>
+      <c r="J350" s="11"/>
+      <c r="K350" s="20"/>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A351" s="40">
+        <v>49249</v>
+      </c>
+      <c r="B351" s="20"/>
+      <c r="C351" s="13"/>
+      <c r="D351" s="39"/>
+      <c r="E351" s="9"/>
+      <c r="F351" s="20"/>
+      <c r="G351" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H351" s="39"/>
+      <c r="I351" s="9"/>
+      <c r="J351" s="11"/>
+      <c r="K351" s="20"/>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A352" s="40">
+        <v>49279</v>
+      </c>
+      <c r="B352" s="20"/>
+      <c r="C352" s="13"/>
+      <c r="D352" s="39"/>
+      <c r="E352" s="9"/>
+      <c r="F352" s="20"/>
+      <c r="G352" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H352" s="39"/>
+      <c r="I352" s="9"/>
+      <c r="J352" s="11"/>
+      <c r="K352" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10685,13 +10814,13 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3"/>
+      <c r="E3"/>
+      <c r="F3">
+        <v>6</v>
+      </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.5</v>
+        <v>1.2E-2</v>
       </c>
       <c r="J3" s="1">
         <v>16</v>
